--- a/biology/Botanique/Myrte_de_l’Oregon/Myrte_de_l’Oregon.xlsx
+++ b/biology/Botanique/Myrte_de_l’Oregon/Myrte_de_l’Oregon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myrte_de_l%E2%80%99Oregon</t>
+          <t>Myrte_de_l’Oregon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Umbellularia californica
 Le laurier de Californie ou myrte de l’Oregon (Umbellularia californica) est une espèce d'arbre aromatique au feuillage persistant de la famille des Lauraceae qui est originaire de la côte Pacifique des États-Unis (Californie et sud de l'Oregon) et du Mexique (nord de la Basse-Californie). C'est la seule espèce actuellement acceptée du genre Umbellularia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Myrte_de_l%E2%80%99Oregon</t>
+          <t>Myrte_de_l’Oregon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,15 +526,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Umbellularia
-(en) Référence Flora of North America : Umbellularia  
+          <t>Umbellularia</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Référence Flora of North America : Umbellularia  
 (en) Référence Catalogue of Life : Umbellularia Nutt. (consulté le 11 décembre 2020)
 (fr) Référence Tela Botanica (France métro) : Umbellularia
 (fr + en) Référence ITIS : Umbellularia  (Nees) Nutt.
 (en) Référence NCBI : Umbellularia (taxons inclus)
-(en) Référence GRIN : genre Umbellularia  (Nees) Nutt. (+liste d'espèces contenant des synonymes)
-Umbellularia californica
-(en) Référence Flora of North America : Umbellularia californica  
+(en) Référence GRIN : genre Umbellularia  (Nees) Nutt. (+liste d'espèces contenant des synonymes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Myrte_de_l’Oregon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myrte_de_l%E2%80%99Oregon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Umbellularia californica</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Référence Flora of North America : Umbellularia californica  
 (en) Référence Catalogue of Life : Umbellularia californica (Hook. &amp; Arn.) Nutt. (consulté le 15 décembre 2020)
 (fr) Référence Tela Botanica (France métro) : Umbellularia californica  (Hook. &amp; Arn.) Nutt.
 (fr + en) Référence ITIS : Umbellularia californica  (Hook. et Arn.) Nutt.
